--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H2">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J2">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N2">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q2">
-        <v>989.2869895238979</v>
+        <v>1021.760636566973</v>
       </c>
       <c r="R2">
-        <v>989.2869895238979</v>
+        <v>9195.845729102761</v>
       </c>
       <c r="S2">
-        <v>0.09305841688170556</v>
+        <v>0.08783165599917633</v>
       </c>
       <c r="T2">
-        <v>0.09305841688170556</v>
+        <v>0.08783165599917631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H3">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J3">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N3">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q3">
-        <v>132.6667158760457</v>
+        <v>135.0990210416133</v>
       </c>
       <c r="R3">
-        <v>132.6667158760457</v>
+        <v>1215.89118937452</v>
       </c>
       <c r="S3">
-        <v>0.01247944699875345</v>
+        <v>0.01161325883704142</v>
       </c>
       <c r="T3">
-        <v>0.01247944699875345</v>
+        <v>0.01161325883704141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H4">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J4">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N4">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q4">
-        <v>143.78973388533</v>
+        <v>161.7973372806782</v>
       </c>
       <c r="R4">
-        <v>143.78973388533</v>
+        <v>1456.176035526104</v>
       </c>
       <c r="S4">
-        <v>0.01352574646276323</v>
+        <v>0.01390827514883204</v>
       </c>
       <c r="T4">
-        <v>0.01352574646276323</v>
+        <v>0.01390827514883203</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.861383102331</v>
+        <v>15.02514266666667</v>
       </c>
       <c r="H5">
-        <v>14.861383102331</v>
+        <v>45.075428</v>
       </c>
       <c r="I5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="J5">
-        <v>0.1469728056212411</v>
+        <v>0.1401726531301337</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N5">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q5">
-        <v>296.6975444222697</v>
+        <v>311.995389632212</v>
       </c>
       <c r="R5">
-        <v>296.6975444222697</v>
+        <v>2807.958506689908</v>
       </c>
       <c r="S5">
-        <v>0.02790919527801892</v>
+        <v>0.02681946314508393</v>
       </c>
       <c r="T5">
-        <v>0.02790919527801892</v>
+        <v>0.02681946314508392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H6">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J6">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N6">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q6">
-        <v>2211.951759318137</v>
+        <v>2262.004627295443</v>
       </c>
       <c r="R6">
-        <v>2211.951759318137</v>
+        <v>20358.04164565899</v>
       </c>
       <c r="S6">
-        <v>0.2080697827027035</v>
+        <v>0.1944443788328851</v>
       </c>
       <c r="T6">
-        <v>0.2080697827027035</v>
+        <v>0.1944443788328851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H7">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J7">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N7">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q7">
-        <v>296.6301777871402</v>
+        <v>299.0863024103033</v>
       </c>
       <c r="R7">
-        <v>296.6301777871402</v>
+        <v>2691.77672169273</v>
       </c>
       <c r="S7">
-        <v>0.02790285835811379</v>
+        <v>0.02570978396234734</v>
       </c>
       <c r="T7">
-        <v>0.02790285835811379</v>
+        <v>0.02570978396234733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H8">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J8">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N8">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q8">
-        <v>321.5001897402991</v>
+        <v>358.1918430941495</v>
       </c>
       <c r="R8">
-        <v>321.5001897402991</v>
+        <v>3223.726587847346</v>
       </c>
       <c r="S8">
-        <v>0.03024228459609946</v>
+        <v>0.03079056054660816</v>
       </c>
       <c r="T8">
-        <v>0.03024228459609946</v>
+        <v>0.03079056054660815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.2286412812546</v>
+        <v>33.26311566666666</v>
       </c>
       <c r="H9">
-        <v>33.2286412812546</v>
+        <v>99.78934699999999</v>
       </c>
       <c r="I9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="J9">
-        <v>0.3286172358561818</v>
+        <v>0.3103184627135109</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N9">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q9">
-        <v>663.3875329605321</v>
+        <v>690.7048380862628</v>
       </c>
       <c r="R9">
-        <v>663.3875329605321</v>
+        <v>6216.343542776366</v>
       </c>
       <c r="S9">
-        <v>0.06240231019926507</v>
+        <v>0.05937373937167031</v>
       </c>
       <c r="T9">
-        <v>0.06240231019926507</v>
+        <v>0.0593737393716703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H10">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I10">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J10">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N10">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q10">
-        <v>3009.194084683755</v>
+        <v>3408.574764339593</v>
       </c>
       <c r="R10">
-        <v>3009.194084683755</v>
+        <v>30677.17287905634</v>
       </c>
       <c r="S10">
-        <v>0.2830632976839513</v>
+        <v>0.2930047952863422</v>
       </c>
       <c r="T10">
-        <v>0.2830632976839513</v>
+        <v>0.293004795286342</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H11">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I11">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J11">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N11">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q11">
-        <v>403.5430576528098</v>
+        <v>450.6878591023533</v>
       </c>
       <c r="R11">
-        <v>403.5430576528098</v>
+        <v>4056.19073192118</v>
       </c>
       <c r="S11">
-        <v>0.03795974119385317</v>
+        <v>0.03874161871872864</v>
       </c>
       <c r="T11">
-        <v>0.03795974119385317</v>
+        <v>0.03874161871872862</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H12">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I12">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J12">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N12">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q12">
-        <v>437.376839307492</v>
+        <v>539.7529529472263</v>
       </c>
       <c r="R12">
-        <v>437.376839307492</v>
+        <v>4857.776576525036</v>
       </c>
       <c r="S12">
-        <v>0.04114235472384741</v>
+        <v>0.04639775108883143</v>
       </c>
       <c r="T12">
-        <v>0.04114235472384741</v>
+        <v>0.04639775108883142</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.2050684941038</v>
+        <v>50.12360066666667</v>
       </c>
       <c r="H13">
-        <v>45.2050684941038</v>
+        <v>150.370802</v>
       </c>
       <c r="I13">
-        <v>0.4470590455229375</v>
+        <v>0.467613402797773</v>
       </c>
       <c r="J13">
-        <v>0.4470590455229375</v>
+        <v>0.4676134027977729</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N13">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q13">
-        <v>902.4888683165299</v>
+        <v>1040.810903876458</v>
       </c>
       <c r="R13">
-        <v>902.4888683165299</v>
+        <v>9367.298134888122</v>
       </c>
       <c r="S13">
-        <v>0.08489365192128559</v>
+        <v>0.08946923770387076</v>
       </c>
       <c r="T13">
-        <v>0.08489365192128559</v>
+        <v>0.08946923770387073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H14">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J14">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N14">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q14">
-        <v>520.6558555842058</v>
+        <v>596.9608001014234</v>
       </c>
       <c r="R14">
-        <v>520.6558555842058</v>
+        <v>5372.64720091281</v>
       </c>
       <c r="S14">
-        <v>0.04897609103721634</v>
+        <v>0.05131539987258506</v>
       </c>
       <c r="T14">
-        <v>0.04897609103721634</v>
+        <v>0.05131539987258503</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H15">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J15">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N15">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q15">
-        <v>69.82170309874545</v>
+        <v>78.93122597176334</v>
       </c>
       <c r="R15">
-        <v>69.82170309874545</v>
+        <v>710.3810337458701</v>
       </c>
       <c r="S15">
-        <v>0.006567858693341047</v>
+        <v>0.006785014062039328</v>
       </c>
       <c r="T15">
-        <v>0.006567858693341047</v>
+        <v>0.006785014062039327</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H16">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J16">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N16">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q16">
-        <v>75.6756812867024</v>
+        <v>94.52964271737491</v>
       </c>
       <c r="R16">
-        <v>75.6756812867024</v>
+        <v>850.7667844563741</v>
       </c>
       <c r="S16">
-        <v>0.007118519874980037</v>
+        <v>0.008125870936635266</v>
       </c>
       <c r="T16">
-        <v>0.007118519874980037</v>
+        <v>0.008125870936635263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.82145749034122</v>
+        <v>8.778397666666669</v>
       </c>
       <c r="H17">
-        <v>7.82145749034122</v>
+        <v>26.335193</v>
       </c>
       <c r="I17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858246</v>
       </c>
       <c r="J17">
-        <v>0.07735091299963968</v>
+        <v>0.08189548135858243</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N17">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q17">
-        <v>156.1501520557277</v>
+        <v>182.282435589397</v>
       </c>
       <c r="R17">
-        <v>156.1501520557277</v>
+        <v>1640.541920304573</v>
       </c>
       <c r="S17">
-        <v>0.01468844339410227</v>
+        <v>0.01566919648732281</v>
       </c>
       <c r="T17">
-        <v>0.01468844339410227</v>
+        <v>0.0156691964873228</v>
       </c>
     </row>
   </sheetData>
